--- a/Documentation/M5Stack-ESP32-Connections.xlsx
+++ b/Documentation/M5Stack-ESP32-Connections.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcelormittal.sharepoint.com/sites/O365Program/Enablement/Shared Documents/IoT BootCamp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\MicroPython-Bootcamp\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="8_{3BBDEB1A-38DF-4BB4-9067-CBFAF95257F5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{EC631A04-B7D0-47CF-8349-06CC7ECA665A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C583A-5B7C-47D1-B896-211F73E6E546}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="5314" xr2:uid="{68BFD62C-9DB5-479A-B1EF-293A0F0D0E85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{68BFD62C-9DB5-479A-B1EF-293A0F0D0E85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -550,9 +551,6 @@
     <t>BATTERY</t>
   </si>
   <si>
-    <t>FIRE</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -566,6 +564,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groove </t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1635,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9820E9B6-60D4-4C40-9DFF-2A4AF7D88FFA}" name="Table1" displayName="Table1" ref="A1:P34" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15">
   <autoFilter ref="A1:P34" xr:uid="{F454DBB1-F0F4-4BD2-B894-0819BB6CE7BD}"/>
-  <sortState ref="A2:J34">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J34">
     <sortCondition ref="F1:F34"/>
   </sortState>
   <tableColumns count="16">
@@ -1642,7 +1643,7 @@
     <tableColumn id="8" xr3:uid="{310558AF-3A98-475A-9354-65CB88EE45D7}" name="Right" dataDxfId="13"/>
     <tableColumn id="10" xr3:uid="{AB9DFEE2-5395-4A28-961C-F6B460DF4BC5}" name="Top" dataDxfId="12"/>
     <tableColumn id="11" xr3:uid="{3C6A0FF5-96D2-41A4-BE4F-9AE8D856545B}" name="Bottom" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{066B6605-0A09-4C4B-BE6B-1F0716605B16}" name="FIRE"/>
+    <tableColumn id="16" xr3:uid="{066B6605-0A09-4C4B-BE6B-1F0716605B16}" name="Groove "/>
     <tableColumn id="3" xr3:uid="{72AE15EC-0C63-4B0D-A656-7B39A082203F}" name="ESP32" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{427BC08D-6D3D-4EBF-8198-276F194E147F}" name="Device" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{0CFB085B-1C85-4F0C-90BC-877CAC479F01}" name="Function" dataDxfId="8"/>
@@ -1959,24 +1960,24 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E18"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" customWidth="1"/>
-    <col min="7" max="7" width="21.69140625" customWidth="1"/>
-    <col min="9" max="9" width="19.53515625" customWidth="1"/>
-    <col min="10" max="10" width="22.69140625" customWidth="1"/>
-    <col min="11" max="12" width="15.15234375" customWidth="1"/>
-    <col min="14" max="14" width="21.3046875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="12" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2026,7 +2027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2061,7 @@
       </c>
       <c r="P2" s="71"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="61"/>
       <c r="C3" s="30"/>
@@ -2093,7 +2094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -2133,7 +2134,7 @@
       </c>
       <c r="P4" s="70"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38">
         <v>3</v>
       </c>
@@ -2209,7 +2210,7 @@
       </c>
       <c r="P6" s="70"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="6"/>
@@ -2243,7 +2244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
@@ -2277,7 +2278,7 @@
       </c>
       <c r="P8" s="70"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2312,7 +2313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="6"/>
@@ -2347,7 +2348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="62"/>
       <c r="C11" s="30"/>
@@ -2381,7 +2382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="60"/>
       <c r="C12" s="44"/>
@@ -2416,7 +2417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.600000000000001" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A13" s="55">
         <v>16</v>
       </c>
@@ -2426,7 +2427,7 @@
       <c r="C13" s="57"/>
       <c r="D13" s="62"/>
       <c r="E13" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>63</v>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="78" t="s">
         <v>65</v>
@@ -2456,7 +2457,7 @@
       </c>
       <c r="P13" s="70"/>
     </row>
-    <row r="14" spans="1:16" ht="17.600000000000001" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>17</v>
       </c>
@@ -2466,7 +2467,7 @@
       <c r="C14" s="56"/>
       <c r="D14" s="61"/>
       <c r="E14" s="77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>68</v>
@@ -2476,7 +2477,7 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J14" s="78" t="s">
         <v>65</v>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="P14" s="70"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="40"/>
       <c r="C15" s="35" t="s">
@@ -2538,7 +2539,7 @@
       </c>
       <c r="P15" s="70"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="40"/>
       <c r="C16" s="35" t="s">
@@ -2580,7 +2581,7 @@
       </c>
       <c r="P16" s="70"/>
     </row>
-    <row r="17" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="37"/>
       <c r="B17" s="41"/>
       <c r="C17" s="38" t="s">
@@ -2590,7 +2591,7 @@
         <v>83</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>84</v>
@@ -2622,7 +2623,7 @@
       </c>
       <c r="P17" s="70"/>
     </row>
-    <row r="18" spans="1:16" ht="17.600000000000001" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.4">
       <c r="A18" s="57"/>
       <c r="B18" s="62"/>
       <c r="C18" s="69" t="s">
@@ -2632,7 +2633,7 @@
         <v>91</v>
       </c>
       <c r="E18" s="75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>92</v>
@@ -2664,7 +2665,7 @@
       </c>
       <c r="P18" s="70"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="60"/>
       <c r="C19" s="64" t="s">
@@ -2706,7 +2707,7 @@
       </c>
       <c r="P19" s="70"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
         <v>100</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.600000000000001" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
         <v>109</v>
       </c>
@@ -2760,7 +2761,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>110</v>
@@ -2792,7 +2793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2826,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="6"/>
@@ -2860,7 +2861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="62"/>
       <c r="C24" s="30"/>
@@ -2892,7 +2893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="60"/>
       <c r="C25" s="30"/>
@@ -2931,7 +2932,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>126</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17.600000000000001" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A27" s="25" t="s">
         <v>131</v>
       </c>
@@ -2982,7 +2983,7 @@
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
       <c r="E27" s="76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>132</v>
@@ -3016,7 +3017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3048,7 +3049,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3080,7 +3081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -3112,7 +3113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>149</v>
       </c>
@@ -3148,7 +3149,7 @@
       </c>
       <c r="P31" s="70"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>152</v>
       </c>
@@ -3184,7 +3185,7 @@
       </c>
       <c r="P32" s="70"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>154</v>
       </c>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="P33" s="70"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
         <v>158</v>
       </c>
@@ -3254,7 +3255,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3446,12 +3447,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3460,11 +3455,40 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F81E46-89D9-4CEB-9226-C724CC5015CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F81E46-89D9-4CEB-9226-C724CC5015CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ccdd6ab1-a196-4811-99a4-7246a0e43998"/>
+    <ds:schemaRef ds:uri="1de03333-01a1-4866-be2f-15836d823402"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9F5B99-880F-42B4-88AA-A5D344711919}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BED2B0D-A2A8-4575-8963-5EA314E2A437}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3479,12 +3503,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A9F5B99-880F-42B4-88AA-A5D344711919}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>